--- a/out/BPI12/results/8_pos_enc/8_pos_enc.xlsx
+++ b/out/BPI12/results/8_pos_enc/8_pos_enc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/8_pos_enc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00900929-2FDE-7C43-A0A5-DDFF7B1F14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70D71DE-B4C3-46BC-8663-FBA9E41EA088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>APREACCEPTED</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>accuracy</t>
+  </si>
+  <si>
+    <t>scartate</t>
   </si>
 </sst>
 </file>
@@ -646,20 +649,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5CE9AF-DD69-40FB-B66A-911F2F6F5C3E}">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.77734375" customWidth="1"/>
+    <col min="28" max="28" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,11 +730,14 @@
       <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,12 +811,15 @@
         <f t="shared" ref="Y2:Y23" si="0">SUM(B2:W2)</f>
         <v>5</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="Z2">
+        <v>2491</v>
+      </c>
+      <c r="AB2" s="24">
         <f>1-B2/Y2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -886,12 +893,15 @@
         <f t="shared" si="0"/>
         <v>172</v>
       </c>
-      <c r="Z3" s="24">
+      <c r="Z3">
+        <v>1555</v>
+      </c>
+      <c r="AB3" s="24">
         <f>1-C3/Y3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -965,12 +975,15 @@
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
-      <c r="Z4" s="24">
+      <c r="Z4">
+        <v>1352</v>
+      </c>
+      <c r="AB4" s="24">
         <f>1-D4/Y4</f>
         <v>0.87914230019493178</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1044,12 +1057,15 @@
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
-      <c r="Z5" s="24">
+      <c r="Z5">
+        <v>1331</v>
+      </c>
+      <c r="AB5" s="24">
         <f>1-E5/Y5</f>
         <v>0.73669467787114851</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1123,12 +1139,15 @@
         <f t="shared" si="0"/>
         <v>1381</v>
       </c>
-      <c r="Z6" s="24">
+      <c r="Z6">
+        <v>997</v>
+      </c>
+      <c r="AB6" s="24">
         <f>1-F6/Y6</f>
         <v>0.3099203475742216</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1202,12 +1221,15 @@
         <f t="shared" si="0"/>
         <v>1849</v>
       </c>
-      <c r="Z7" s="24">
+      <c r="Z7">
+        <v>592</v>
+      </c>
+      <c r="AB7" s="24">
         <f>1-G7/Y7</f>
         <v>0.21957815035154138</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1281,12 +1303,15 @@
         <f t="shared" si="0"/>
         <v>3830</v>
       </c>
-      <c r="Z8" s="24">
+      <c r="Z8">
+        <v>4397</v>
+      </c>
+      <c r="AB8" s="24">
         <f>1-H8/Y8</f>
         <v>8.7206266318537895E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1360,12 +1385,15 @@
         <f t="shared" si="0"/>
         <v>6751</v>
       </c>
-      <c r="Z9" s="24">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="24">
         <f>1-I9/Y9</f>
         <v>8.5320693230632516E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1439,12 +1467,15 @@
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-      <c r="Z10" s="24">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="24">
         <f>1-J10/Y10</f>
         <v>0.99912280701754386</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1518,12 +1549,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="24">
         <f>1-K11/Y11</f>
         <v>0.9431486880466472</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
@@ -1597,12 +1631,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z12" s="24">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="24">
         <f>1-L12/Y12</f>
         <v>0.97667638483965014</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1676,12 +1713,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z13" s="24">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="24">
         <f>1-M13/Y13</f>
         <v>0.97521865889212833</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1755,12 +1795,15 @@
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="Z14" s="24">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="24">
         <f>1-N14/Y14</f>
         <v>0.78717201166180761</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -1834,12 +1877,15 @@
         <f t="shared" si="0"/>
         <v>2546</v>
       </c>
-      <c r="Z15" s="24">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="24">
         <f>1-O15/Y15</f>
         <v>0.48821681068342493</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
@@ -1913,12 +1959,15 @@
         <f t="shared" si="0"/>
         <v>1118</v>
       </c>
-      <c r="Z16" s="24">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="24">
         <f>1-P16/Y16</f>
         <v>0.73971377459749554</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -1992,12 +2041,15 @@
         <f t="shared" si="0"/>
         <v>322</v>
       </c>
-      <c r="Z17" s="24">
+      <c r="Z17">
+        <v>2115</v>
+      </c>
+      <c r="AB17" s="24">
         <f>1-Q17/Y17</f>
         <v>0.98757763975155277</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -2071,12 +2123,15 @@
         <f t="shared" si="0"/>
         <v>604</v>
       </c>
-      <c r="Z18" s="24">
+      <c r="Z18">
+        <v>200</v>
+      </c>
+      <c r="AB18" s="24">
         <f>1-R18/Y18</f>
         <v>0.76655629139072845</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2150,12 +2205,15 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Z19" s="24">
+      <c r="Z19">
+        <v>1898</v>
+      </c>
+      <c r="AB19" s="24">
         <f>1-S19/Y19</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
@@ -2229,12 +2287,15 @@
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="Z20" s="24">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="24">
         <f>1-T20/Y20</f>
         <v>0.99606299212598426</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>19</v>
       </c>
@@ -2308,12 +2369,15 @@
         <f t="shared" si="0"/>
         <v>3439</v>
       </c>
-      <c r="Z21" s="24">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="24">
         <f>1-U21/Y21</f>
         <v>0.31811573131724336</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
@@ -2387,12 +2451,15 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Z22" s="24">
+      <c r="Z22">
+        <v>63</v>
+      </c>
+      <c r="AB22" s="24">
         <f>1-V22/Y22</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>21</v>
       </c>
@@ -2466,15 +2533,18 @@
         <f t="shared" si="0"/>
         <v>2119</v>
       </c>
-      <c r="Z23" s="24">
+      <c r="Z23">
+        <v>2200</v>
+      </c>
+      <c r="AB23" s="24">
         <f>1-W23/Y23</f>
         <v>0.34686172722982533</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B24" s="27"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2570,8 +2640,12 @@
         <f>SUM(Y2:Y23)</f>
         <v>29698</v>
       </c>
+      <c r="Z25">
+        <f>SUM(Z2:Z23)</f>
+        <v>19191</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2668,7 +2742,7 @@
         <v>0.60519226883965249</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2765,7 +2839,7 @@
         <v>0.5376790908485819</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2862,7 +2936,7 @@
         <v>0.56944156687426506</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2871,7 +2945,7 @@
         <v>0.55627773517793655</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>

--- a/out/BPI12/results/8_pos_enc/8_pos_enc.xlsx
+++ b/out/BPI12/results/8_pos_enc/8_pos_enc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/8_pos_enc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00900929-2FDE-7C43-A0A5-DDFF7B1F14CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6A9CBB-0190-C74A-965A-9173EA82006E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
   </bookViews>
@@ -132,7 +132,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,10 +303,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -332,9 +340,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5CE9AF-DD69-40FB-B66A-911F2F6F5C3E}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1357,7 +1367,7 @@
         <v>19</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:W9)</f>
         <v>6751</v>
       </c>
       <c r="Z9" s="24">
@@ -2866,7 +2876,7 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="28">
         <f>(0*Y2+0*Y3+D29*Y4+E29*Y5+F29*Y6+G29*Y7+H29*Y8+I29*Y9+J29*Y10+K29*Y11+L29*Y12+M29*Y13+N29*Y14+O29*Y15+P29*Y16+Q29*Y17+R29*Y18+0*Y19+T29*Y20+U29*Y21+0*Y22+W29*Y23)/Y25</f>
         <v>0.55627773517793655</v>
       </c>
@@ -2875,7 +2885,7 @@
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="28">
         <f>(B2+C3+D4+E5+F6+G7+H8+I9+J10+K11+L12+M13+N14+O15+P16+Q17+R18+S19+T20+U21+V22+W23)/Y25</f>
         <v>0.60519226883965249</v>
       </c>

--- a/out/BPI12/results/8_pos_enc/8_pos_enc.xlsx
+++ b/out/BPI12/results/8_pos_enc/8_pos_enc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/secondo semestre/big data analytics e machine learning/progetto/codice/gtransformers/out/BPI12/results/8_pos_enc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70D71DE-B4C3-46BC-8663-FBA9E41EA088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50A98A-3D89-1F43-BD54-245C616AAA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" xr2:uid="{B8E86814-7E8C-4C9C-AFFC-0BA4156C50F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -651,16 +651,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5CE9AF-DD69-40FB-B66A-911F2F6F5C3E}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10.77734375" customWidth="1"/>
-    <col min="28" max="28" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.83203125" customWidth="1"/>
+    <col min="28" max="28" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -901,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -983,7 +985,7 @@
         <v>0.87914230019493178</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>0.73669467787114851</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>0.3099203475742216</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1229,7 +1231,7 @@
         <v>0.21957815035154138</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>8.7206266318537895E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>8.5320693230632516E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>0.99912280701754386</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>0.9431486880466472</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
@@ -1639,7 +1641,7 @@
         <v>0.97667638483965014</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>0.97521865889212833</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>0.78717201166180761</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -1885,7 +1887,7 @@
         <v>0.48821681068342493</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
@@ -1967,7 +1969,7 @@
         <v>0.73971377459749554</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>0.98757763975155277</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -2131,7 +2133,7 @@
         <v>0.76655629139072845</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
@@ -2295,7 +2297,7 @@
         <v>0.99606299212598426</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>19</v>
       </c>
@@ -2377,7 +2379,7 @@
         <v>0.31811573131724336</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
@@ -2459,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>21</v>
       </c>
@@ -2541,10 +2543,10 @@
         <v>0.34686172722982533</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" s="27"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2645,9 +2647,9 @@
         <v>19191</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <f>B2/Y2</f>
@@ -2742,9 +2744,9 @@
         <v>0.60519226883965249</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="26" t="e">
         <f>B2/B25</f>
@@ -2839,7 +2841,7 @@
         <v>0.5376790908485819</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>0.56944156687426506</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -2945,7 +2947,7 @@
         <v>0.55627773517793655</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
